--- a/Seung9/event table 크롤링/event data.xlsx
+++ b/Seung9/event table 크롤링/event data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\강승구\@@@@@2조프로젝트@@@@@\burang-narang\Seung9\event table 크롤링\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강승구\Desktop\burang-narang\Seung9\event table 크롤링\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35747F6F-53D5-461F-81C3-F393D69BB69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="605"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -990,7 +989,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,7 +1083,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1396,28 +1395,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="J24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="9" max="9" width="117.25" customWidth="1"/>
-    <col min="10" max="10" width="76.75" customWidth="1"/>
-    <col min="11" max="13" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="56.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="7" width="17.19921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1"/>
+    <col min="9" max="9" width="117.19921875" customWidth="1"/>
+    <col min="10" max="10" width="76.69921875" customWidth="1"/>
+    <col min="11" max="13" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1428,10 +1427,10 @@
         <v>119</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>189</v>
@@ -1449,7 +1448,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1460,10 +1459,10 @@
         <v>120</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>240</v>
@@ -1479,7 +1478,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1489,11 +1488,11 @@
       <c r="C3" t="s">
         <v>126</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
         <v>124</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>194</v>
@@ -1512,10 +1511,10 @@
       </c>
       <c r="K3" t="str">
         <f>"insert into event values ('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>insert into event values ('1', '세계 최고의 케이팝 콘서트, 부산원아시아페스티벌', '부산사직종합운동장 부산아시아드주경기장','부산 아시아드 경기장','051-500-2134','2022/10/27','2022/10.30','images/1.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=1062&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('1', '세계 최고의 케이팝 콘서트, 부산원아시아페스티벌', '부산사직종합운동장 부산아시아드주경기장','051-500-2134','부산 아시아드 경기장','2022/10/27','2022/10.30','images/1.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=1062&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1525,11 +1524,11 @@
       <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>196</v>
@@ -1548,10 +1547,10 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K32" si="0">"insert into event values ('"&amp;A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
-        <v>insert into event values ('2', '영화속 음식을 다양하게 즐길 수 있는, 부산푸드필름페스타', '영화의전당','부산광역시 해운대구 수영강변대로 120','051-780-6000','2022/07/01','2022/07/03','images/2.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=807&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('2', '영화속 음식을 다양하게 즐길 수 있는, 부산푸드필름페스타', '영화의전당','051-780-6000','부산광역시 해운대구 수영강변대로 120','2022/07/01','2022/07/03','images/2.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=807&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1561,11 +1560,11 @@
       <c r="C5" t="s">
         <v>127</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>192</v>
@@ -1584,10 +1583,10 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('3', '영화로 물드는 부산의 10월, 부산국제영화제', '영화의전당','부산광역시 해운대구 수영강변대로 120(영화의 전당)','051-780-6000','2022/10/05','2022/10/14','images/3.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=524&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('3', '영화로 물드는 부산의 10월, 부산국제영화제', '영화의전당','051-780-6000','부산광역시 해운대구 수영강변대로 120(영화의 전당)','2022/10/05','2022/10/14','images/3.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=524&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1597,11 +1596,11 @@
       <c r="C6" t="s">
         <v>130</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>198</v>
@@ -1620,10 +1619,10 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('4', '아름다운 부산 밤하늘의 하모니, 부산불꽃축제', '광안리해수욕장','부산 수영구 광안해변로 219','051-610-4744','2022/11/05','2022/11/05','images/4.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=395&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('4', '아름다운 부산 밤하늘의 하모니, 부산불꽃축제', '광안리해수욕장','051-610-4744','부산 수영구 광안해변로 219','2022/11/05','2022/11/05','images/4.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=395&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1633,11 +1632,11 @@
       <c r="C7" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>200</v>
@@ -1656,10 +1655,10 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('5', '음악에 적셔진 한 여름 밤의 열정, 부산국제록페스티벌', '삼락생태공원','부산광역시 사상구 삼락동 29-46 삼락생태공원','051-310-4088','2022/10/01','2022/10/02','images/5.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=470&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('5', '음악에 적셔진 한 여름 밤의 열정, 부산국제록페스티벌', '삼락생태공원','051-310-4088','부산광역시 사상구 삼락동 29-46 삼락생태공원','2022/10/01','2022/10/02','images/5.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=470&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1669,11 +1668,11 @@
       <c r="C8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
         <v>138</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>202</v>
@@ -1692,10 +1691,10 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('6', '부산하면 여름 여름하면, 부산바다축제!', '해운대해수욕장','해운대 해수욕장, 광안리 해수욕장, 다대포 해수욕장 등','051-749-7612','2022/07/30','2022/08/07','images/6.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=71&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('6', '부산하면 여름 여름하면, 부산바다축제!', '해운대해수욕장','051-749-7612','해운대 해수욕장, 광안리 해수욕장, 다대포 해수욕장 등','2022/07/30','2022/08/07','images/6.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=71&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1705,11 +1704,11 @@
       <c r="C9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>203</v>
@@ -1728,10 +1727,10 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('7', '해양에 대한 모든 것, 부산항축제', '부산항축제 ','부산항국제여객터미널, 국립해양박물관 일원','051-501-6051','2022/07/02','2022/07/03','images/7.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=406&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('7', '해양에 대한 모든 것, 부산항축제', '부산항축제 ','051-501-6051','부산항국제여객터미널, 국립해양박물관 일원','2022/07/02','2022/07/03','images/7.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=406&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1741,11 +1740,11 @@
       <c r="C10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
         <v>139</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>204</v>
@@ -1764,10 +1763,10 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('8', '동래 언덕 위에 피어나는 역사 속 그 날, 동래읍성 역사축제', '동래문화회관','부산광역시 동래구 문화로 80','051-550-6611','2022/10/14','2022/10/16','images/8.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=407&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('8', '동래 언덕 위에 피어나는 역사 속 그 날, 동래읍성 역사축제', '동래문화회관','051-550-6611','부산광역시 동래구 문화로 80','2022/10/14','2022/10/16','images/8.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=407&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1777,11 +1776,11 @@
       <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>204</v>
@@ -1800,10 +1799,10 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('9', '어방이 궁금해? 궁금하면, 광안리어방축제', '광안리해수욕장','부산광역시 수영구 광안해변로 219','051-610-4744','2022/10/14','2022/10/16','images/9.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=442&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('9', '어방이 궁금해? 궁금하면, 광안리어방축제', '광안리해수욕장','051-610-4744','부산광역시 수영구 광안해변로 219','2022/10/14','2022/10/16','images/9.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=442&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1813,11 +1812,11 @@
       <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>206</v>
@@ -1836,10 +1835,10 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('10', '보고 듣고 맛보는 즐거움이 가득한, 부산자갈치축제', '자갈치시장','부산광역시 중구 자갈치해안로 52','051-245-2594','2022/10/13','2022/10/16','images/10.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=411&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('10', '보고 듣고 맛보는 즐거움이 가득한, 부산자갈치축제', '자갈치시장','051-245-2594','부산광역시 중구 자갈치해안로 52','2022/10/13','2022/10/16','images/10.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=411&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1849,11 +1848,11 @@
       <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>207</v>
@@ -1872,10 +1871,10 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('11', '다대포 바다를 물들이는 예술의 향기, 부산바다미술제', '다대포꿈의낙조분수 ','부산광역시 사하구 몰운대1길 14','051-220-5891','2022/10/16','2022/11/14','images/11.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=427&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('11', '다대포 바다를 물들이는 예술의 향기, 부산바다미술제', '다대포꿈의낙조분수 ','051-220-5891','부산광역시 사하구 몰운대1길 14','2022/10/16','2022/11/14','images/11.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=427&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1885,11 +1884,11 @@
       <c r="C14" t="s">
         <v>143</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>210</v>
@@ -1908,10 +1907,10 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('12', '해운대 밤바다를 낭만으로 물들이는, 해운대빛축제', '해운대종합관광봉사센터 안내소','부산광역시 해운대구 해운대해변로 264','051-749-5700','2021/11/27','2022/02/02','images/12.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=440&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>insert into event values ('12', '해운대 밤바다를 낭만으로 물들이는, 해운대빛축제', '해운대종합관광봉사센터 안내소','051-749-5700','부산광역시 해운대구 해운대해변로 264','2021/11/27','2022/02/02','images/12.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=440&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1921,11 +1920,11 @@
       <c r="C15" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>212</v>
@@ -1944,10 +1943,10 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('13', '크리스마스트리의 향연, 부산크리스마스트리문화축제', 'ABC마트 GS부산광복점','부산광역시 중구 광복로 58-2','051-246-9900','2021/12/04','2022/01/09','images/13.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=449&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('13', '크리스마스트리의 향연, 부산크리스마스트리문화축제', 'ABC마트 GS부산광복점','051-246-9900','부산광역시 중구 광복로 58-2','2021/12/04','2022/01/09','images/13.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=449&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1957,11 +1956,11 @@
       <c r="C16" t="s">
         <v>150</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
         <v>146</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>213</v>
@@ -1980,10 +1979,10 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('14', '구포나루의 추억과 낭만, 낙동강구포나루축제', '낙동강구포나루축제','부산광역시 북구 낙동대로1739번길 257 화명생태공원 선착장','051-309-4065','2022/10/22','2022/11/05','images/14.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=331&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('14', '구포나루의 추억과 낭만, 낙동강구포나루축제', '낙동강구포나루축제','051-309-4065','부산광역시 북구 낙동대로1739번길 257 화명생태공원 선착장','2022/10/22','2022/11/05','images/14.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=331&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1993,11 +1992,11 @@
       <c r="C17" t="s">
         <v>152</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>215</v>
@@ -2016,10 +2015,10 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('15', '샛노란 봄날의 유혹, 부산낙동강유채꽃축제', '부산 낙동강유채꽃축제','부산광역시 강서구 대저생태공원','051-501-6051','2022/04/01','2022/04/30','images/15.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=496&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('15', '샛노란 봄날의 유혹, 부산낙동강유채꽃축제', '부산 낙동강유채꽃축제','051-501-6051','부산광역시 강서구 대저생태공원','2022/04/01','2022/04/30','images/15.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=496&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2029,11 +2028,11 @@
       <c r="C18" t="s">
         <v>154</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>216</v>
@@ -2052,10 +2051,10 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('16', '모래의 변신은 예술, 해운대모래축제를 가다', '해운대모래축제','해운대해수욕장, 해운대광장(구남로) 일원','051-749-5605','2022/05/20','2022/05/23','images/16.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=405&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('16', '모래의 변신은 예술, 해운대모래축제를 가다', '해운대모래축제','051-749-5605','해운대해수욕장, 해운대광장(구남로) 일원','2022/05/20','2022/05/23','images/16.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=405&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2065,11 +2064,11 @@
       <c r="C19" t="s">
         <v>157</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
         <v>156</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>206</v>
@@ -2088,10 +2087,10 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('17', '부산에서 만나는 중국의 흥!, 부산차이나타운특구 문화축제', '초량차이나타운 ','부산광역시 동구 대영로243번길 43','051-440-4061','2022/10/13','2022/10/16','images/17.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=414&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('17', '부산에서 만나는 중국의 흥!, 부산차이나타운특구 문화축제', '초량차이나타운 ','051-440-4061','부산광역시 동구 대영로243번길 43','2022/10/13','2022/10/16','images/17.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=414&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2101,11 +2100,11 @@
       <c r="C20" t="s">
         <v>161</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
         <v>159</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>218</v>
@@ -2124,10 +2123,10 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('18', '한‧일 양국에 피어나는 봄꽃, 조선통신사축제', '용두산공원','부산광역시 중구 용두산길 37-55 용두산 공원','051-860-7820','2022/05/05','2022/05/08','images/18.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=523&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('18', '한‧일 양국에 피어나는 봄꽃, 조선통신사축제', '용두산공원','051-860-7820','부산광역시 중구 용두산길 37-55 용두산 공원','2022/05/05','2022/05/08','images/18.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=523&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2137,11 +2136,11 @@
       <c r="C21" t="s">
         <v>162</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>220</v>
@@ -2160,10 +2159,10 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('19', '미로 골목길 투어, 감천문화마을 골목축제', '감천문화마을 골목축제 ','부산광역시 사하구 감내2로 203','051-220-5911','2022/10/28','2022/10/29','images/19.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=531&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('19', '미로 골목길 투어, 감천문화마을 골목축제', '감천문화마을 골목축제 ','051-220-5911','부산광역시 사하구 감내2로 203','2022/10/28','2022/10/29','images/19.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=531&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2173,11 +2172,11 @@
       <c r="C22" t="s">
         <v>164</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
         <v>80</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>222</v>
@@ -2196,10 +2195,10 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('20', '골목 분위기 제대로 즐기는, 부산원도심골목길축제', '부산원도심 골목길축제','부산광역시 중구, 서구, 동구, 영도구','051-501-6051','2022/06/11','2022/06/12','images/20.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=404&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('20', '골목 분위기 제대로 즐기는, 부산원도심골목길축제', '부산원도심 골목길축제','051-501-6051','부산광역시 중구, 서구, 동구, 영도구','2022/06/11','2022/06/12','images/20.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=404&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2209,11 +2208,11 @@
       <c r="C23" t="s">
         <v>166</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
         <v>165</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>224</v>
@@ -2232,10 +2231,10 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('21', '열정가득!  벚꽃가득!, 사상강변축제', '삼락생태공원','부산광역시 사상구 삼락생태공원 럭비구장 일원','051-310-4088','2022/03/01','2022/03/30','images/21.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=500&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('21', '열정가득!  벚꽃가득!, 사상강변축제', '삼락생태공원','051-310-4088','부산광역시 사상구 삼락생태공원 럭비구장 일원','2022/03/01','2022/03/30','images/21.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=500&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2245,11 +2244,11 @@
       <c r="C24" t="s">
         <v>170</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" t="s">
         <v>168</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>226</v>
@@ -2268,10 +2267,10 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('22', '오색찬란 연등터널, 삼광사 연등축제', '삼광사','부산광역시 부산진구 초읍천로43번길 77','051-808-7111','2022/04/22','2022/05/08','images/22.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=403&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('22', '오색찬란 연등터널, 삼광사 연등축제', '삼광사','051-808-7111','부산광역시 부산진구 초읍천로43번길 77','2022/04/22','2022/05/08','images/22.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=403&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2281,11 +2280,11 @@
       <c r="C25" t="s">
         <v>173</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" t="s">
         <v>171</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>227</v>
@@ -2304,10 +2303,10 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('23', '태종대에서 만난 오색찬란, 수국 축제', '태종사','부산광역시 영도구 전망로 119','051-405-2626','2022/01/01','2022/12/31','images/23.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=253&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('23', '태종대에서 만난 오색찬란, 수국 축제', '태종사','051-405-2626','부산광역시 영도구 전망로 119','2022/01/01','2022/12/31','images/23.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=253&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2317,11 +2316,11 @@
       <c r="C26" t="s">
         <v>174</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" t="s">
         <v>93</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>224</v>
@@ -2340,10 +2339,10 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('24', '몽환의 순간을 담다, 삼락벚꽃축제', '부산삼락벚꽃축제','부산광역시 사상구 삼락생태공원 일원','051-310-3002','2022/03/01','2022/03/31','images/24.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=499&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('24', '몽환의 순간을 담다, 삼락벚꽃축제', '부산삼락벚꽃축제','051-310-3002','부산광역시 사상구 삼락생태공원 일원','2022/03/01','2022/03/31','images/24.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=499&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2353,11 +2352,11 @@
       <c r="C27" t="s">
         <v>176</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>230</v>
@@ -2376,10 +2375,10 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('25', '보름달이 뜨는 밤엔, 해운대달맞이온천축제', '해운대해수욕장','부산광역시 해운대구 해운대해변로 264','051-749-7612','2022/02/15','2022/02/15','images/25.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=502&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('25', '보름달이 뜨는 밤엔, 해운대달맞이온천축제', '해운대해수욕장','051-749-7612','부산광역시 해운대구 해운대해변로 264','2022/02/15','2022/02/15','images/25.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=502&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2389,11 +2388,11 @@
       <c r="C28" t="s">
         <v>176</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>222</v>
@@ -2412,10 +2411,10 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('26', '한겨울의 짜릿함, 해운대북극곰축제', '해운대해수욕장','부산광역시 해운대구 해운대해변로 264','051-749-7612','2022/06/11','2022/06/20','images/26.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=503&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('26', '한겨울의 짜릿함, 해운대북극곰축제', '해운대해수욕장','051-749-7612','부산광역시 해운대구 해운대해변로 264','2022/06/11','2022/06/20','images/26.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=503&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2425,11 +2424,11 @@
       <c r="C29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" t="s">
         <v>178</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>234</v>
@@ -2448,10 +2447,10 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('27', '문화로 노닐다, 금정산성축제', '네이처리퍼블릭 장전역점','부산광역시 금정구 장전온천천로 144','051-581-1973','2022/05/26','2022/05/29','images/27.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=330&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('27', '문화로 노닐다, 금정산성축제', '네이처리퍼블릭 장전역점','051-581-1973','부산광역시 금정구 장전온천천로 144','2022/05/26','2022/05/29','images/27.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=330&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2461,11 +2460,11 @@
       <c r="C30" t="s">
         <v>181</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" t="s">
         <v>106</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>235</v>
@@ -2484,10 +2483,10 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('28', '명품 토마토를 사수하라!, 대저토마토축제', '부산대저토마토축제','부산광역시 강서구 체육공원로 43(강서체육공원)','051-971-4834','2022/04/03','2022/04/06','images/28.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=497&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('28', '명품 토마토를 사수하라!, 대저토마토축제', '부산대저토마토축제','051-971-4834','부산광역시 강서구 체육공원로 43(강서체육공원)','2022/04/03','2022/04/06','images/28.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=497&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2497,11 +2496,11 @@
       <c r="C31" t="s">
         <v>184</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
         <v>110</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>216</v>
@@ -2520,10 +2519,10 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('29', '기장멸치의 변신은 무죄, 기장멸치축제', '기장멸치축제','부산광역시 기장군 기장읍 대변항 일원','051-721-4063','2022/05/20','2022/05/22','images/29.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=443&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>insert into event values ('29', '기장멸치의 변신은 무죄, 기장멸치축제', '기장멸치축제','051-721-4063','부산광역시 기장군 기장읍 대변항 일원','2022/05/20','2022/05/22','images/29.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=443&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2533,11 +2532,11 @@
       <c r="C32" t="s">
         <v>186</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" t="s">
         <v>185</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>238</v>
@@ -2556,51 +2555,51 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('30', '기장 봄바다의 맛, 기장미역다시마축제', '삼기물산','부산광역시 기장군 일광면 이동길 43','051-721-0400','2022/04/06','2022/04/08','images/30.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=441&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+        <v>insert into event values ('30', '기장 봄바다의 맛, 기장미역다시마축제', '삼기물산','051-721-0400','부산광역시 기장군 일광면 이동길 43','2022/04/06','2022/04/08','images/30.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=441&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F85"/>
+  <autoFilter ref="A1:F85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="J5" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="J7" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="J11" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J14" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J17" r:id="rId14"/>
-    <hyperlink ref="J18" r:id="rId15"/>
-    <hyperlink ref="J19" r:id="rId16"/>
-    <hyperlink ref="J20" r:id="rId17"/>
-    <hyperlink ref="J21" r:id="rId18"/>
-    <hyperlink ref="J22" r:id="rId19"/>
-    <hyperlink ref="J23" r:id="rId20"/>
-    <hyperlink ref="J24" r:id="rId21"/>
-    <hyperlink ref="J25" r:id="rId22"/>
-    <hyperlink ref="J26" r:id="rId23"/>
-    <hyperlink ref="J27" r:id="rId24"/>
-    <hyperlink ref="J28" r:id="rId25"/>
-    <hyperlink ref="J29" r:id="rId26"/>
-    <hyperlink ref="J30" r:id="rId27"/>
-    <hyperlink ref="J31" r:id="rId28"/>
-    <hyperlink ref="J32" r:id="rId29"/>
-    <hyperlink ref="J9" r:id="rId30"/>
-    <hyperlink ref="I3" r:id="rId31" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=1062&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1"/>
-    <hyperlink ref="I23" r:id="rId32" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=500&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317"/>
-    <hyperlink ref="I29" r:id="rId33" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=330&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317"/>
-    <hyperlink ref="I13" r:id="rId34" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=427&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I3" r:id="rId31" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=1062&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I23" r:id="rId32" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=500&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I29" r:id="rId33" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=330&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I13" r:id="rId34" display="https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=427&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>

--- a/Seung9/event table 크롤링/event data.xlsx
+++ b/Seung9/event table 크롤링/event data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강승구\Desktop\burang-narang\Seung9\event table 크롤링\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35747F6F-53D5-461F-81C3-F393D69BB69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA20F8-A403-4469-B845-DDA0ED691512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="297">
   <si>
     <t>NO</t>
   </si>
@@ -983,6 +983,105 @@
   </si>
   <si>
     <t>기장 봄바다의 맛, 기장미역다시마축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E09</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,6 +1179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,13 +1500,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" style="5" customWidth="1"/>
     <col min="2" max="2" width="56.3984375" customWidth="1"/>
     <col min="3" max="3" width="19.3984375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -1417,7 +1519,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1449,7 +1551,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1479,8 +1581,8 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -1511,12 +1613,12 @@
       </c>
       <c r="K3" t="str">
         <f>"insert into event values ('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>insert into event values ('1', '세계 최고의 케이팝 콘서트, 부산원아시아페스티벌', '부산사직종합운동장 부산아시아드주경기장','051-500-2134','부산 아시아드 경기장','2022/10/27','2022/10.30','images/1.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=1062&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E01', '세계 최고의 케이팝 콘서트, 부산원아시아페스티벌', '부산사직종합운동장 부산아시아드주경기장','051-500-2134','부산 아시아드 경기장','2022/10/27','2022/10.30','images/1.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=1062&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>247</v>
@@ -1547,12 +1649,12 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K32" si="0">"insert into event values ('"&amp;A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
-        <v>insert into event values ('2', '영화속 음식을 다양하게 즐길 수 있는, 부산푸드필름페스타', '영화의전당','051-780-6000','부산광역시 해운대구 수영강변대로 120','2022/07/01','2022/07/03','images/2.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=807&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E02', '영화속 음식을 다양하게 즐길 수 있는, 부산푸드필름페스타', '영화의전당','051-780-6000','부산광역시 해운대구 수영강변대로 120','2022/07/01','2022/07/03','images/2.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=807&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1583,12 +1685,12 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('3', '영화로 물드는 부산의 10월, 부산국제영화제', '영화의전당','051-780-6000','부산광역시 해운대구 수영강변대로 120(영화의 전당)','2022/10/05','2022/10/14','images/3.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=524&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E03', '영화로 물드는 부산의 10월, 부산국제영화제', '영화의전당','051-780-6000','부산광역시 해운대구 수영강변대로 120(영화의 전당)','2022/10/05','2022/10/14','images/3.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=524&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1619,12 +1721,12 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('4', '아름다운 부산 밤하늘의 하모니, 부산불꽃축제', '광안리해수욕장','051-610-4744','부산 수영구 광안해변로 219','2022/11/05','2022/11/05','images/4.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=395&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E04', '아름다운 부산 밤하늘의 하모니, 부산불꽃축제', '광안리해수욕장','051-610-4744','부산 수영구 광안해변로 219','2022/11/05','2022/11/05','images/4.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=395&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>248</v>
@@ -1655,12 +1757,12 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('5', '음악에 적셔진 한 여름 밤의 열정, 부산국제록페스티벌', '삼락생태공원','051-310-4088','부산광역시 사상구 삼락동 29-46 삼락생태공원','2022/10/01','2022/10/02','images/5.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=470&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E05', '음악에 적셔진 한 여름 밤의 열정, 부산국제록페스티벌', '삼락생태공원','051-310-4088','부산광역시 사상구 삼락동 29-46 삼락생태공원','2022/10/01','2022/10/02','images/5.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=470&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>249</v>
@@ -1691,12 +1793,12 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('6', '부산하면 여름 여름하면, 부산바다축제!', '해운대해수욕장','051-749-7612','해운대 해수욕장, 광안리 해수욕장, 다대포 해수욕장 등','2022/07/30','2022/08/07','images/6.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=71&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E06', '부산하면 여름 여름하면, 부산바다축제!', '해운대해수욕장','051-749-7612','해운대 해수욕장, 광안리 해수욕장, 다대포 해수욕장 등','2022/07/30','2022/08/07','images/6.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=71&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1727,12 +1829,12 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('7', '해양에 대한 모든 것, 부산항축제', '부산항축제 ','051-501-6051','부산항국제여객터미널, 국립해양박물관 일원','2022/07/02','2022/07/03','images/7.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=406&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E07', '해양에 대한 모든 것, 부산항축제', '부산항축제 ','051-501-6051','부산항국제여객터미널, 국립해양박물관 일원','2022/07/02','2022/07/03','images/7.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=406&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>245</v>
@@ -1763,12 +1865,12 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('8', '동래 언덕 위에 피어나는 역사 속 그 날, 동래읍성 역사축제', '동래문화회관','051-550-6611','부산광역시 동래구 문화로 80','2022/10/14','2022/10/16','images/8.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=407&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E08', '동래 언덕 위에 피어나는 역사 속 그 날, 동래읍성 역사축제', '동래문화회관','051-550-6611','부산광역시 동래구 문화로 80','2022/10/14','2022/10/16','images/8.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=407&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>250</v>
@@ -1799,12 +1901,12 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('9', '어방이 궁금해? 궁금하면, 광안리어방축제', '광안리해수욕장','051-610-4744','부산광역시 수영구 광안해변로 219','2022/10/14','2022/10/16','images/9.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=442&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E09', '어방이 궁금해? 궁금하면, 광안리어방축제', '광안리해수욕장','051-610-4744','부산광역시 수영구 광안해변로 219','2022/10/14','2022/10/16','images/9.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=442&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="B12" t="s">
         <v>251</v>
@@ -1835,12 +1937,12 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('10', '보고 듣고 맛보는 즐거움이 가득한, 부산자갈치축제', '자갈치시장','051-245-2594','부산광역시 중구 자갈치해안로 52','2022/10/13','2022/10/16','images/10.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=411&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E10', '보고 듣고 맛보는 즐거움이 가득한, 부산자갈치축제', '자갈치시장','051-245-2594','부산광역시 중구 자갈치해안로 52','2022/10/13','2022/10/16','images/10.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=411&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -1871,12 +1973,12 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('11', '다대포 바다를 물들이는 예술의 향기, 부산바다미술제', '다대포꿈의낙조분수 ','051-220-5891','부산광역시 사하구 몰운대1길 14','2022/10/16','2022/11/14','images/11.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=427&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E11', '다대포 바다를 물들이는 예술의 향기, 부산바다미술제', '다대포꿈의낙조분수 ','051-220-5891','부산광역시 사하구 몰운대1길 14','2022/10/16','2022/11/14','images/11.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=427&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="B14" t="s">
         <v>252</v>
@@ -1907,12 +2009,12 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('12', '해운대 밤바다를 낭만으로 물들이는, 해운대빛축제', '해운대종합관광봉사센터 안내소','051-749-5700','부산광역시 해운대구 해운대해변로 264','2021/11/27','2022/02/02','images/12.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=440&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E12', '해운대 밤바다를 낭만으로 물들이는, 해운대빛축제', '해운대종합관광봉사센터 안내소','051-749-5700','부산광역시 해운대구 해운대해변로 264','2021/11/27','2022/02/02','images/12.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=440&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>13</v>
+      <c r="A15" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>244</v>
@@ -1943,12 +2045,12 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('13', '크리스마스트리의 향연, 부산크리스마스트리문화축제', 'ABC마트 GS부산광복점','051-246-9900','부산광역시 중구 광복로 58-2','2021/12/04','2022/01/09','images/13.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=449&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E13', '크리스마스트리의 향연, 부산크리스마스트리문화축제', 'ABC마트 GS부산광복점','051-246-9900','부산광역시 중구 광복로 58-2','2021/12/04','2022/01/09','images/13.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=449&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="B16" t="s">
         <v>253</v>
@@ -1979,12 +2081,12 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('14', '구포나루의 추억과 낭만, 낙동강구포나루축제', '낙동강구포나루축제','051-309-4065','부산광역시 북구 낙동대로1739번길 257 화명생태공원 선착장','2022/10/22','2022/11/05','images/14.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=331&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E14', '구포나루의 추억과 낭만, 낙동강구포나루축제', '낙동강구포나루축제','051-309-4065','부산광역시 북구 낙동대로1739번길 257 화명생태공원 선착장','2022/10/22','2022/11/05','images/14.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=331&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>15</v>
+      <c r="A17" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -2015,12 +2117,12 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('15', '샛노란 봄날의 유혹, 부산낙동강유채꽃축제', '부산 낙동강유채꽃축제','051-501-6051','부산광역시 강서구 대저생태공원','2022/04/01','2022/04/30','images/15.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=496&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E15', '샛노란 봄날의 유혹, 부산낙동강유채꽃축제', '부산 낙동강유채꽃축제','051-501-6051','부산광역시 강서구 대저생태공원','2022/04/01','2022/04/30','images/15.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=496&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>153</v>
@@ -2051,12 +2153,12 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('16', '모래의 변신은 예술, 해운대모래축제를 가다', '해운대모래축제','051-749-5605','해운대해수욕장, 해운대광장(구남로) 일원','2022/05/20','2022/05/23','images/16.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=405&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
+        <v>insert into event values ('E16', '모래의 변신은 예술, 해운대모래축제를 가다', '해운대모래축제','051-749-5605','해운대해수욕장, 해운대광장(구남로) 일원','2022/05/20','2022/05/23','images/16.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=405&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc9e73ea0fd749ff1');</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>17</v>
+      <c r="A19" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="B19" t="s">
         <v>254</v>
@@ -2087,12 +2189,12 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('17', '부산에서 만나는 중국의 흥!, 부산차이나타운특구 문화축제', '초량차이나타운 ','051-440-4061','부산광역시 동구 대영로243번길 43','2022/10/13','2022/10/16','images/17.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=414&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E17', '부산에서 만나는 중국의 흥!, 부산차이나타운특구 문화축제', '초량차이나타운 ','051-440-4061','부산광역시 동구 대영로243번길 43','2022/10/13','2022/10/16','images/17.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=414&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -2123,12 +2225,12 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('18', '한‧일 양국에 피어나는 봄꽃, 조선통신사축제', '용두산공원','051-860-7820','부산광역시 중구 용두산길 37-55 용두산 공원','2022/05/05','2022/05/08','images/18.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=523&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E18', '한‧일 양국에 피어나는 봄꽃, 조선통신사축제', '용두산공원','051-860-7820','부산광역시 중구 용두산길 37-55 용두산 공원','2022/05/05','2022/05/08','images/18.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=523&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>19</v>
+      <c r="A21" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="B21" t="s">
         <v>255</v>
@@ -2159,12 +2261,12 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('19', '미로 골목길 투어, 감천문화마을 골목축제', '감천문화마을 골목축제 ','051-220-5911','부산광역시 사하구 감내2로 203','2022/10/28','2022/10/29','images/19.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=531&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E19', '미로 골목길 투어, 감천문화마을 골목축제', '감천문화마을 골목축제 ','051-220-5911','부산광역시 사하구 감내2로 203','2022/10/28','2022/10/29','images/19.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=531&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>20</v>
+      <c r="A22" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="B22" t="s">
         <v>256</v>
@@ -2195,12 +2297,12 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('20', '골목 분위기 제대로 즐기는, 부산원도심골목길축제', '부산원도심 골목길축제','051-501-6051','부산광역시 중구, 서구, 동구, 영도구','2022/06/11','2022/06/12','images/20.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=404&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E20', '골목 분위기 제대로 즐기는, 부산원도심골목길축제', '부산원도심 골목길축제','051-501-6051','부산광역시 중구, 서구, 동구, 영도구','2022/06/11','2022/06/12','images/20.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=404&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>21</v>
+      <c r="A23" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="B23" t="s">
         <v>257</v>
@@ -2231,12 +2333,12 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('21', '열정가득!  벚꽃가득!, 사상강변축제', '삼락생태공원','051-310-4088','부산광역시 사상구 삼락생태공원 럭비구장 일원','2022/03/01','2022/03/30','images/21.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=500&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E21', '열정가득!  벚꽃가득!, 사상강변축제', '삼락생태공원','051-310-4088','부산광역시 사상구 삼락생태공원 럭비구장 일원','2022/03/01','2022/03/30','images/21.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=500&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>22</v>
+      <c r="A24" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="B24" t="s">
         <v>258</v>
@@ -2267,12 +2369,12 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('22', '오색찬란 연등터널, 삼광사 연등축제', '삼광사','051-808-7111','부산광역시 부산진구 초읍천로43번길 77','2022/04/22','2022/05/08','images/22.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=403&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E22', '오색찬란 연등터널, 삼광사 연등축제', '삼광사','051-808-7111','부산광역시 부산진구 초읍천로43번길 77','2022/04/22','2022/05/08','images/22.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=403&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>23</v>
+      <c r="A25" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="B25" t="s">
         <v>259</v>
@@ -2303,12 +2405,12 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('23', '태종대에서 만난 오색찬란, 수국 축제', '태종사','051-405-2626','부산광역시 영도구 전망로 119','2022/01/01','2022/12/31','images/23.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=253&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E23', '태종대에서 만난 오색찬란, 수국 축제', '태종사','051-405-2626','부산광역시 영도구 전망로 119','2022/01/01','2022/12/31','images/23.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=253&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>24</v>
+      <c r="A26" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="B26" t="s">
         <v>260</v>
@@ -2339,12 +2441,12 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('24', '몽환의 순간을 담다, 삼락벚꽃축제', '부산삼락벚꽃축제','051-310-3002','부산광역시 사상구 삼락생태공원 일원','2022/03/01','2022/03/31','images/24.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=499&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E24', '몽환의 순간을 담다, 삼락벚꽃축제', '부산삼락벚꽃축제','051-310-3002','부산광역시 사상구 삼락생태공원 일원','2022/03/01','2022/03/31','images/24.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=499&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>25</v>
+      <c r="A27" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="B27" t="s">
         <v>261</v>
@@ -2375,12 +2477,12 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('25', '보름달이 뜨는 밤엔, 해운대달맞이온천축제', '해운대해수욕장','051-749-7612','부산광역시 해운대구 해운대해변로 264','2022/02/15','2022/02/15','images/25.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=502&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E25', '보름달이 뜨는 밤엔, 해운대달맞이온천축제', '해운대해수욕장','051-749-7612','부산광역시 해운대구 해운대해변로 264','2022/02/15','2022/02/15','images/25.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=502&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>26</v>
+      <c r="A28" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="B28" t="s">
         <v>262</v>
@@ -2411,12 +2513,12 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('26', '한겨울의 짜릿함, 해운대북극곰축제', '해운대해수욕장','051-749-7612','부산광역시 해운대구 해운대해변로 264','2022/06/11','2022/06/20','images/26.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=503&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E26', '한겨울의 짜릿함, 해운대북극곰축제', '해운대해수욕장','051-749-7612','부산광역시 해운대구 해운대해변로 264','2022/06/11','2022/06/20','images/26.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=503&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>27</v>
+      <c r="A29" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="B29" t="s">
         <v>263</v>
@@ -2447,12 +2549,12 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('27', '문화로 노닐다, 금정산성축제', '네이처리퍼블릭 장전역점','051-581-1973','부산광역시 금정구 장전온천천로 144','2022/05/26','2022/05/29','images/27.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=330&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E27', '문화로 노닐다, 금정산성축제', '네이처리퍼블릭 장전역점','051-581-1973','부산광역시 금정구 장전온천천로 144','2022/05/26','2022/05/29','images/27.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=330&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>28</v>
+      <c r="A30" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="B30" t="s">
         <v>264</v>
@@ -2483,12 +2585,12 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('28', '명품 토마토를 사수하라!, 대저토마토축제', '부산대저토마토축제','051-971-4834','부산광역시 강서구 체육공원로 43(강서체육공원)','2022/04/03','2022/04/06','images/28.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=497&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E28', '명품 토마토를 사수하라!, 대저토마토축제', '부산대저토마토축제','051-971-4834','부산광역시 강서구 체육공원로 43(강서체육공원)','2022/04/03','2022/04/06','images/28.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=497&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>29</v>
+      <c r="A31" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="B31" t="s">
         <v>265</v>
@@ -2519,12 +2621,12 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('29', '기장멸치의 변신은 무죄, 기장멸치축제', '기장멸치축제','051-721-4063','부산광역시 기장군 기장읍 대변항 일원','2022/05/20','2022/05/22','images/29.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=443&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E29', '기장멸치의 변신은 무죄, 기장멸치축제', '기장멸치축제','051-721-4063','부산광역시 기장군 기장읍 대변항 일원','2022/05/20','2022/05/22','images/29.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=443&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>30</v>
+      <c r="A32" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="B32" t="s">
         <v>266</v>
@@ -2555,7 +2657,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into event values ('30', '기장 봄바다의 맛, 기장미역다시마축제', '삼기물산','051-721-0400','부산광역시 기장군 일광면 이동길 43','2022/04/06','2022/04/08','images/30.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=441&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
+        <v>insert into event values ('E30', '기장 봄바다의 맛, 기장미역다시마축제', '삼기물산','051-721-0400','부산광역시 기장군 일광면 이동길 43','2022/04/06','2022/04/08','images/30.jpg','https://www.visitbusan.net/index.do?menuCd=DOM_000000201005001000&amp;uc_seq=441&amp;lang_cd=ko&amp;pagingParms=4ca15f3a76a21f554a6e515f5344f50c4f734814d27260977c0eb574b1e0019a33f5a8e2dd587a9efb82cc91cf112987488312a3bc08c3054da8c190c930f6592e7894a7ed3cf424c17bc506baa57feb0aa608ee54ad79feb8b43e0becf2aedf306446a26175f37928b2e64d297ab48f8acfae3743ce2794ef15d99eb793341329c53a76d24a81ef72a11ca917970aac34400ec0365d93e364d7a859d58178e212648c28901350cb20330ec09b4e8c7ee5e2b8287a2a6536a889e832bf7d31f847bff6a467836ed9d75537b39410af399cbcba9ee6702cb3dbdfc37118061bdc6242d2505ff463a634757c4ad1fb5316c17e3c6c881b1202936a9591f574a9b458fe7ada378c8e24a939d38009efceb2f1d2f3d9fb0a84335999d70d74a175a02229fcd269f25ecae09cba47d7fa5b4ca79471889a1020e6226a199377b97ead69d777bcce27c101be7225c1ffeb0036367494277c22e6ec9cff0114e7cadf3a2d867367262d1b5f6a717ace24b4cae0734d3410c3de7cbbe8e8e2de4a08c9f7f2d71419b760deedc85bfd092d20cf83296e62049d974032c50fee7f8aa0e20719104acb04653baa264be502ef0f1cca19faf72dfd77b0bf1930b929eb2ee93dbea2f5bff2d9ad4661906d2630252c7a77755caae6cc44ce63bad15ddb06615ce3b6b3e2ad2ade8ddc56b9a8835779c8968497af73b9cee2d26904ec9ddb2852944561dc3a786f3e5c68c8e0e32ae35abb0978563b823f553103c0757fd7e769114895883f6c30f8d9107f51b43406263d9ba68fff184ad872b9b0efeefd8d3a2a809eb15b6818f12446d25d8cd7efecc255394911058317');</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
